--- a/Evaluación de Riesgos del Proyecto.xlsx
+++ b/Evaluación de Riesgos del Proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinac\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D601EE-7EDF-48CB-BCC0-7CD1F4277FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563EF0DE-3E5F-4376-826E-86C855DD409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Risk Assessment" sheetId="4" r:id="rId1"/>
@@ -40,9 +40,6 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -51,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
   <si>
     <t>LOW</t>
   </si>
@@ -302,6 +299,51 @@
   </si>
   <si>
     <t>Aumentar cobertura de pruebas, usar pruebas automatizadas y pruebas cruzadas entre miembros del equipo</t>
+  </si>
+  <si>
+    <t>Baja participación de usuarios en pruebas Beta</t>
+  </si>
+  <si>
+    <t>Tolerable</t>
+  </si>
+  <si>
+    <t>Probable</t>
+  </si>
+  <si>
+    <t>Aceptable</t>
+  </si>
+  <si>
+    <t>Improbable</t>
+  </si>
+  <si>
+    <t>Indeseable</t>
+  </si>
+  <si>
+    <t>Posible</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>Lanzamiento Beta</t>
+  </si>
+  <si>
+    <t>Incentivos para testers, contacto con usuarios desde temprano</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>Cierre y entrega</t>
+  </si>
+  <si>
+    <t>Documentación incompleta o poco clara</t>
+  </si>
+  <si>
+    <t>Responsables definidos de documentación, plantillas estandarizadas, revisiones finales del equipo</t>
+  </si>
+  <si>
+    <t>R9</t>
   </si>
 </sst>
 </file>
@@ -1342,358 +1384,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{E55007F3-D83F-DB42-ADDD-54365F8C4A3A}"/>
   </cellStyles>
-  <dxfs count="46">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA80B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEC97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF65F7C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEEF3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA80B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEC97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF65F7C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEEF3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFA80B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEC97"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF65F7C6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor auto="1"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEEF3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <font>
         <b val="0"/>
@@ -1755,6 +1446,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEEF3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1763,6 +1503,64 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF65F7C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA80B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEC97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65F7C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1791,6 +1589,16 @@
       <fill>
         <patternFill>
           <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2128,11 +1936,11 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:V24"/>
+  <dimension ref="B1:V26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P10" s="61" t="s">
         <v>12</v>
@@ -2535,56 +2343,112 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:22" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-      <c r="D13" s="32"/>
+    <row r="13" spans="2:22" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="E13" s="35" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="54"/>
-    </row>
-    <row r="14" spans="2:22" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="35"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>85</v>
+      </c>
       <c r="E14" s="35" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="G14" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="71" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B15" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="54"/>
-    </row>
-    <row r="15" spans="2:22" s="5" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="54"/>
-    </row>
-    <row r="16" spans="2:22" s="5" customFormat="1" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H15" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35"/>
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
@@ -2675,20 +2539,46 @@
       <c r="K22" s="66"/>
       <c r="L22" s="54"/>
     </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="59"/>
-    </row>
-    <row r="24" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="35"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="54"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" s="35"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="56"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="59"/>
+    </row>
+    <row r="26" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E5:G5"/>
@@ -2697,181 +2587,109 @@
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E10 I7:I23 E16:E23">
-    <cfRule type="containsText" dxfId="45" priority="62" operator="containsText" text="INTOLERABLE">
+  <conditionalFormatting sqref="E7:E18">
+    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="INTOLERABLE">
       <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="63" operator="containsText" text="UNDESIRABLE">
+    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="UNDESIRABLE">
       <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="64" operator="containsText" text="TOLERABLE">
+    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="TOLERABLE">
       <formula>NOT(ISERROR(SEARCH("TOLERABLE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="65" operator="containsText" text="ACCEPTABLE">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="ACCEPTABLE">
       <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7:F10 J7:J23 F16:F23">
-    <cfRule type="containsText" dxfId="41" priority="51" operator="containsText" text="POSSIBLE">
+  <conditionalFormatting sqref="E16:E25 I7:I25">
+    <cfRule type="containsText" dxfId="19" priority="62" operator="containsText" text="INTOLERABLE">
+      <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:F18">
+    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="POSSIBLE">
       <formula>NOT(ISERROR(SEARCH("POSSIBLE",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="57" operator="containsText" text="IMPROBABLE">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="IMPROBABLE">
       <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="59" operator="containsText" text="PROBABLE">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="PROBABLE">
       <formula>NOT(ISERROR(SEARCH("PROBABLE",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G10 K7:K23 G16:G23">
-    <cfRule type="containsText" dxfId="38" priority="47" operator="containsText" text="LOW">
+  <conditionalFormatting sqref="F16:F25 J7:J25">
+    <cfRule type="containsText" dxfId="15" priority="51" operator="containsText" text="POSSIBLE">
+      <formula>NOT(ISERROR(SEARCH("POSSIBLE",F7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:G18">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="48" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="49" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="50" operator="containsText" text="EXTREME">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="EXTREME">
       <formula>NOT(ISERROR(SEARCH("EXTREME",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L23">
-    <cfRule type="containsText" dxfId="34" priority="45" operator="containsText" text="NO">
+  <conditionalFormatting sqref="G16:G25 K7:K25">
+    <cfRule type="containsText" dxfId="10" priority="47" operator="containsText" text="LOW">
+      <formula>NOT(ISERROR(SEARCH("LOW",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16:E25 I7:I25">
+    <cfRule type="containsText" dxfId="9" priority="63" operator="containsText" text="UNDESIRABLE">
+      <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="64" operator="containsText" text="TOLERABLE">
+      <formula>NOT(ISERROR(SEARCH("TOLERABLE",E7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="65" operator="containsText" text="ACCEPTABLE">
+      <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16:F25 J7:J25">
+    <cfRule type="containsText" dxfId="6" priority="57" operator="containsText" text="IMPROBABLE">
+      <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="59" operator="containsText" text="PROBABLE">
+      <formula>NOT(ISERROR(SEARCH("PROBABLE",F7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G25 K7:K25">
+    <cfRule type="containsText" dxfId="4" priority="48" operator="containsText" text="MEDIUM">
+      <formula>NOT(ISERROR(SEARCH("MEDIUM",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="49" operator="containsText" text="HIGH">
+      <formula>NOT(ISERROR(SEARCH("HIGH",G7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="50" operator="containsText" text="EXTREME">
+      <formula>NOT(ISERROR(SEARCH("EXTREME",G7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7:L25">
+    <cfRule type="containsText" dxfId="1" priority="45" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",L7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="46" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="0" priority="46" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",L7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="INTOLERABLE">
-      <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="UNDESIRABLE">
-      <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="21" operator="containsText" text="TOLERABLE">
-      <formula>NOT(ISERROR(SEARCH("TOLERABLE",E15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="22" operator="containsText" text="ACCEPTABLE">
-      <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="28" priority="16" operator="containsText" text="POSSIBLE">
-      <formula>NOT(ISERROR(SEARCH("POSSIBLE",F15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="17" operator="containsText" text="IMPROBABLE">
-      <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="18" operator="containsText" text="PROBABLE">
-      <formula>NOT(ISERROR(SEARCH("PROBABLE",F15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="LOW">
-      <formula>NOT(ISERROR(SEARCH("LOW",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="MEDIUM">
-      <formula>NOT(ISERROR(SEARCH("MEDIUM",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="HIGH">
-      <formula>NOT(ISERROR(SEARCH("HIGH",G15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="EXTREME">
-      <formula>NOT(ISERROR(SEARCH("EXTREME",G15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E18">
-    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="INTOLERABLE">
-      <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="31" operator="containsText" text="UNDESIRABLE">
-      <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="32" operator="containsText" text="TOLERABLE">
-      <formula>NOT(ISERROR(SEARCH("TOLERABLE",E16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="33" operator="containsText" text="ACCEPTABLE">
-      <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F18">
-    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="POSSIBLE">
-      <formula>NOT(ISERROR(SEARCH("POSSIBLE",F16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="IMPROBABLE">
-      <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="PROBABLE">
-      <formula>NOT(ISERROR(SEARCH("PROBABLE",F16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G18">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="LOW">
-      <formula>NOT(ISERROR(SEARCH("LOW",G16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="24" operator="containsText" text="MEDIUM">
-      <formula>NOT(ISERROR(SEARCH("MEDIUM",G16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="HIGH">
-      <formula>NOT(ISERROR(SEARCH("HIGH",G16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="26" operator="containsText" text="EXTREME">
-      <formula>NOT(ISERROR(SEARCH("EXTREME",G16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E14">
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="INTOLERABLE">
-      <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="UNDESIRABLE">
-      <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="TOLERABLE">
-      <formula>NOT(ISERROR(SEARCH("TOLERABLE",E11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="ACCEPTABLE">
-      <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F14">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="POSSIBLE">
-      <formula>NOT(ISERROR(SEARCH("POSSIBLE",F11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="IMPROBABLE">
-      <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="PROBABLE">
-      <formula>NOT(ISERROR(SEARCH("PROBABLE",F11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G14">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="LOW">
-      <formula>NOT(ISERROR(SEARCH("LOW",G11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="MEDIUM">
-      <formula>NOT(ISERROR(SEARCH("MEDIUM",G11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="HIGH">
-      <formula>NOT(ISERROR(SEARCH("HIGH",G11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="EXTREME">
-      <formula>NOT(ISERROR(SEARCH("EXTREME",G11)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I23 E7:E23" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 E7:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$P$7:$P$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J23 F7:F23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J25 F7:F25" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K23 G7:G23" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K25 G7:G25" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$T$7:$T$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L23" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L25" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$V$7:$V$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -2888,7 +2706,7 @@
   </sheetPr>
   <dimension ref="B1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="V81" sqref="V81"/>
     </sheetView>
   </sheetViews>

--- a/Evaluación de Riesgos del Proyecto.xlsx
+++ b/Evaluación de Riesgos del Proyecto.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563EF0DE-3E5F-4376-826E-86C855DD409C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7DE748-8726-4354-B930-1C009A20E7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="3975" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Risk Assessment" sheetId="4" r:id="rId1"/>
     <sheet name="KEY - Risk Assessment Matrix" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Risk Assessment'!$B$1:$L$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Risk Assessment'!$B$1:$L$26</definedName>
     <definedName name="REASSESSMENT_DATE">#REF!</definedName>
     <definedName name="Type" localSheetId="1">'KEY - Risk Assessment Matrix'!#REF!</definedName>
     <definedName name="Type" localSheetId="0">'Project Risk Assessment'!#REF!</definedName>
@@ -40,6 +40,9 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -48,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
   <si>
     <t>LOW</t>
   </si>
@@ -344,6 +347,102 @@
   </si>
   <si>
     <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>Backend – Servicios API</t>
+  </si>
+  <si>
+    <t>Fallas en la comunicación entre microservicios o sobrecarga del API Gateway.</t>
+  </si>
+  <si>
+    <t>Implementar balanceo de carga, uso de colas de mensajería (RabbitMQ/Kafka), pruebas de estrés y logs centralizados.</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>Backend – Seguridad de endpoints</t>
+  </si>
+  <si>
+    <t>Acceso no autorizado o fuga de datos por endpoints expuestos.</t>
+  </si>
+  <si>
+    <t>Autenticación JWT, cifrado HTTPS, auditorías de seguridad y revisión OWASP Top 10.</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>Frontend – Integración con API</t>
+  </si>
+  <si>
+    <t>Errores de sincronización o respuesta lenta en llamadas API.</t>
+  </si>
+  <si>
+    <t>Implementación de manejo de errores global, caché local, y pruebas de integración continuas.</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>Frontend – Compatibilidad y rendimiento</t>
+  </si>
+  <si>
+    <t>Incompatibilidad con ciertos dispositivos o baja optimización de carga.</t>
+  </si>
+  <si>
+    <t>Pruebas multiplataforma, optimización de componentes React/Ionic, reducción de recursos gráficos.</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>Base de Datos – Integridad de datos</t>
+  </si>
+  <si>
+    <t>Pérdida o inconsistencia de datos financieros.</t>
+  </si>
+  <si>
+    <t>Implementar respaldos automáticos, claves foráneas, validación de integridad y replicación en tiempo real.</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>Base de Datos – Rendimiento</t>
+  </si>
+  <si>
+    <t>Cuellos de botella por consultas ineficientes o alta concurrencia.</t>
+  </si>
+  <si>
+    <t>Indexación, optimización de consultas SQL, uso de caché Redis y monitoreo con métricas de rendimiento.</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>Conexión Front–Back–DB</t>
+  </si>
+  <si>
+    <t>Fallos intermitentes de conexión o tiempos de espera prolongados.</t>
+  </si>
+  <si>
+    <t>Implementación de retry logic, balanceadores de red, y monitoreo en tiempo real con alertas.</t>
+  </si>
+  <si>
+    <t>Despliegue y CI/CD</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>Errores en automatización o fallos en versiones productivas.</t>
+  </si>
+  <si>
+    <t>Pruebas automáticas antes del despliegue, ambientes de staging, y control de versiones.</t>
   </si>
 </sst>
 </file>
@@ -1384,7 +1483,430 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{E55007F3-D83F-DB42-ADDD-54365F8C4A3A}"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00BD32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA80B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEC97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEEF3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65F7C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00BD32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA80B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEC97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEEF3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65F7C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00BD32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFA80B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEC97"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor auto="1"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEAEEF3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65F7C6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1936,11 +2458,11 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="B1:V26"/>
+  <dimension ref="B1:V29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2448,111 +2970,287 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:22" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="35"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="54"/>
-    </row>
-    <row r="17" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="35"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="54"/>
-    </row>
-    <row r="18" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="54"/>
-    </row>
-    <row r="19" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="35"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="54"/>
-    </row>
-    <row r="20" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="54"/>
-    </row>
-    <row r="21" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="35"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="54"/>
-    </row>
-    <row r="22" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="54"/>
-    </row>
-    <row r="23" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="35"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="54"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" s="5" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B16" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="5" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B18" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="5" customFormat="1" ht="54" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="5" customFormat="1" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="5" customFormat="1" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="5" customFormat="1" ht="55.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="71" t="s">
+        <v>7</v>
+      </c>
+      <c r="K22" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="5" customFormat="1" ht="42" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -2565,20 +3263,59 @@
       <c r="K24" s="66"/>
       <c r="L24" s="54"/>
     </row>
-    <row r="25" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="59"/>
-    </row>
-    <row r="26" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="35"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="2:12" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="35"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="35"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="54"/>
+    </row>
+    <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="56"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="59"/>
+    </row>
+    <row r="29" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E5:G5"/>
@@ -2588,108 +3325,267 @@
     <mergeCell ref="I3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E18">
-    <cfRule type="containsText" dxfId="23" priority="8" operator="containsText" text="INTOLERABLE">
+    <cfRule type="containsText" dxfId="62" priority="47" operator="containsText" text="INTOLERABLE">
       <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="9" operator="containsText" text="UNDESIRABLE">
+    <cfRule type="containsText" dxfId="61" priority="48" operator="containsText" text="UNDESIRABLE">
       <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="10" operator="containsText" text="TOLERABLE">
+    <cfRule type="containsText" dxfId="60" priority="49" operator="containsText" text="TOLERABLE">
       <formula>NOT(ISERROR(SEARCH("TOLERABLE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="ACCEPTABLE">
+    <cfRule type="containsText" dxfId="59" priority="50" operator="containsText" text="ACCEPTABLE">
       <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E25 I7:I25">
-    <cfRule type="containsText" dxfId="19" priority="62" operator="containsText" text="INTOLERABLE">
+  <conditionalFormatting sqref="E16:E19 I7:I19 I23:I28 E23:E28">
+    <cfRule type="containsText" dxfId="58" priority="101" operator="containsText" text="INTOLERABLE">
       <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F18">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="POSSIBLE">
+    <cfRule type="containsText" dxfId="57" priority="44" operator="containsText" text="POSSIBLE">
       <formula>NOT(ISERROR(SEARCH("POSSIBLE",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="IMPROBABLE">
+    <cfRule type="containsText" dxfId="56" priority="45" operator="containsText" text="IMPROBABLE">
       <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="PROBABLE">
+    <cfRule type="containsText" dxfId="55" priority="46" operator="containsText" text="PROBABLE">
       <formula>NOT(ISERROR(SEARCH("PROBABLE",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F25 J7:J25">
-    <cfRule type="containsText" dxfId="15" priority="51" operator="containsText" text="POSSIBLE">
+  <conditionalFormatting sqref="F16:F19 J7:J19 J23:J28 F23:F28">
+    <cfRule type="containsText" dxfId="54" priority="90" operator="containsText" text="POSSIBLE">
       <formula>NOT(ISERROR(SEARCH("POSSIBLE",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G18">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="LOW">
+    <cfRule type="containsText" dxfId="53" priority="40" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="MEDIUM">
+    <cfRule type="containsText" dxfId="52" priority="41" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="51" priority="42" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="EXTREME">
+    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="EXTREME">
       <formula>NOT(ISERROR(SEARCH("EXTREME",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G25 K7:K25">
-    <cfRule type="containsText" dxfId="10" priority="47" operator="containsText" text="LOW">
+  <conditionalFormatting sqref="G16:G19 K7:K19 K23:K28 G23:G28">
+    <cfRule type="containsText" dxfId="49" priority="86" operator="containsText" text="LOW">
       <formula>NOT(ISERROR(SEARCH("LOW",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16:E25 I7:I25">
-    <cfRule type="containsText" dxfId="9" priority="63" operator="containsText" text="UNDESIRABLE">
+  <conditionalFormatting sqref="E16:E19 I7:I19 I23:I28 E23:E28">
+    <cfRule type="containsText" dxfId="48" priority="102" operator="containsText" text="UNDESIRABLE">
       <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="64" operator="containsText" text="TOLERABLE">
+    <cfRule type="containsText" dxfId="47" priority="103" operator="containsText" text="TOLERABLE">
       <formula>NOT(ISERROR(SEARCH("TOLERABLE",E7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="65" operator="containsText" text="ACCEPTABLE">
+    <cfRule type="containsText" dxfId="46" priority="104" operator="containsText" text="ACCEPTABLE">
       <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F25 J7:J25">
-    <cfRule type="containsText" dxfId="6" priority="57" operator="containsText" text="IMPROBABLE">
+  <conditionalFormatting sqref="F16:F19 J7:J19 J23:J28 F23:F28">
+    <cfRule type="containsText" dxfId="45" priority="96" operator="containsText" text="IMPROBABLE">
       <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="59" operator="containsText" text="PROBABLE">
+    <cfRule type="containsText" dxfId="44" priority="98" operator="containsText" text="PROBABLE">
       <formula>NOT(ISERROR(SEARCH("PROBABLE",F7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G25 K7:K25">
-    <cfRule type="containsText" dxfId="4" priority="48" operator="containsText" text="MEDIUM">
+  <conditionalFormatting sqref="G16:G19 K7:K19 K23:K28 G23:G28">
+    <cfRule type="containsText" dxfId="43" priority="87" operator="containsText" text="MEDIUM">
       <formula>NOT(ISERROR(SEARCH("MEDIUM",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="49" operator="containsText" text="HIGH">
+    <cfRule type="containsText" dxfId="42" priority="88" operator="containsText" text="HIGH">
       <formula>NOT(ISERROR(SEARCH("HIGH",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="50" operator="containsText" text="EXTREME">
+    <cfRule type="containsText" dxfId="41" priority="89" operator="containsText" text="EXTREME">
       <formula>NOT(ISERROR(SEARCH("EXTREME",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:L25">
-    <cfRule type="containsText" dxfId="1" priority="45" operator="containsText" text="NO">
+  <conditionalFormatting sqref="L7:L19 L23:L28">
+    <cfRule type="containsText" dxfId="40" priority="84" operator="containsText" text="NO">
       <formula>NOT(ISERROR(SEARCH("NO",L7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="46" operator="containsText" text="YES">
+    <cfRule type="containsText" dxfId="39" priority="85" operator="containsText" text="YES">
       <formula>NOT(ISERROR(SEARCH("YES",L7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20 I20">
+    <cfRule type="containsText" dxfId="38" priority="36" operator="containsText" text="INTOLERABLE">
+      <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 J20">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="POSSIBLE">
+      <formula>NOT(ISERROR(SEARCH("POSSIBLE",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20 K20">
+    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="LOW">
+      <formula>NOT(ISERROR(SEARCH("LOW",G20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20 I20">
+    <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="UNDESIRABLE">
+      <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="38" operator="containsText" text="TOLERABLE">
+      <formula>NOT(ISERROR(SEARCH("TOLERABLE",E20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="39" operator="containsText" text="ACCEPTABLE">
+      <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20 J20">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="IMPROBABLE">
+      <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="35" operator="containsText" text="PROBABLE">
+      <formula>NOT(ISERROR(SEARCH("PROBABLE",F20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20 K20">
+    <cfRule type="containsText" dxfId="30" priority="30" operator="containsText" text="MEDIUM">
+      <formula>NOT(ISERROR(SEARCH("MEDIUM",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="31" operator="containsText" text="HIGH">
+      <formula>NOT(ISERROR(SEARCH("HIGH",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="32" operator="containsText" text="EXTREME">
+      <formula>NOT(ISERROR(SEARCH("EXTREME",G20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",L20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",L20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21 E21">
+    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="INTOLERABLE">
+      <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21 F21">
+    <cfRule type="containsText" dxfId="24" priority="20" operator="containsText" text="POSSIBLE">
+      <formula>NOT(ISERROR(SEARCH("POSSIBLE",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21 G21">
+    <cfRule type="containsText" dxfId="23" priority="16" operator="containsText" text="LOW">
+      <formula>NOT(ISERROR(SEARCH("LOW",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21 E21">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="UNDESIRABLE">
+      <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="TOLERABLE">
+      <formula>NOT(ISERROR(SEARCH("TOLERABLE",E21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="ACCEPTABLE">
+      <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J21 F21">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="IMPROBABLE">
+      <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="PROBABLE">
+      <formula>NOT(ISERROR(SEARCH("PROBABLE",F21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21 G21">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="MEDIUM">
+      <formula>NOT(ISERROR(SEARCH("MEDIUM",G21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="HIGH">
+      <formula>NOT(ISERROR(SEARCH("HIGH",G21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="19" operator="containsText" text="EXTREME">
+      <formula>NOT(ISERROR(SEARCH("EXTREME",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",L21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22 E22">
+    <cfRule type="containsText" dxfId="12" priority="10" operator="containsText" text="INTOLERABLE">
+      <formula>NOT(ISERROR(SEARCH("INTOLERABLE",E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22 F22">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="POSSIBLE">
+      <formula>NOT(ISERROR(SEARCH("POSSIBLE",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22 G22">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="LOW">
+      <formula>NOT(ISERROR(SEARCH("LOW",G22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22 E22">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="UNDESIRABLE">
+      <formula>NOT(ISERROR(SEARCH("UNDESIRABLE",E22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="TOLERABLE">
+      <formula>NOT(ISERROR(SEARCH("TOLERABLE",E22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="ACCEPTABLE">
+      <formula>NOT(ISERROR(SEARCH("ACCEPTABLE",E22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22 F22">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="IMPROBABLE">
+      <formula>NOT(ISERROR(SEARCH("IMPROBABLE",F22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="PROBABLE">
+      <formula>NOT(ISERROR(SEARCH("PROBABLE",F22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22 G22">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="MEDIUM">
+      <formula>NOT(ISERROR(SEARCH("MEDIUM",G22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="HIGH">
+      <formula>NOT(ISERROR(SEARCH("HIGH",G22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="EXTREME">
+      <formula>NOT(ISERROR(SEARCH("EXTREME",G22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",L22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",L22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I25 E7:E25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E28 I7:I28" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$P$7:$P$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J7:J25 F7:F25" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F28 J7:J28" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$R$7:$R$9</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K7:K25 G7:G25" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7:G28 K7:K28" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$T$7:$T$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L25" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L7:L28" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>$V$7:$V$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Evaluación de Riesgos del Proyecto.xlsx
+++ b/Evaluación de Riesgos del Proyecto.xlsx
@@ -5,21 +5,22 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7DE748-8726-4354-B930-1C009A20E7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A02C3F-E514-4419-A2C4-7D4A1055FFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3975" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Risk Assessment" sheetId="4" r:id="rId1"/>
-    <sheet name="KEY - Risk Assessment Matrix" sheetId="3" r:id="rId2"/>
+    <sheet name="Matriz Impacto" sheetId="5" r:id="rId2"/>
+    <sheet name="KEY - Risk Assessment Matrix" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Risk Assessment'!$B$1:$L$26</definedName>
     <definedName name="REASSESSMENT_DATE">#REF!</definedName>
-    <definedName name="Type" localSheetId="1">'KEY - Risk Assessment Matrix'!#REF!</definedName>
+    <definedName name="Type" localSheetId="2">'KEY - Risk Assessment Matrix'!#REF!</definedName>
     <definedName name="Type" localSheetId="0">'Project Risk Assessment'!#REF!</definedName>
     <definedName name="Type">#REF!</definedName>
   </definedNames>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="163">
   <si>
     <t>LOW</t>
   </si>
@@ -444,12 +445,175 @@
   <si>
     <t>Pruebas automáticas antes del despliegue, ambientes de staging, y control de versiones.</t>
   </si>
+  <si>
+    <t>MATRIZ DE IMPACTO</t>
+  </si>
+  <si>
+    <t>PROBABILIDAD</t>
+  </si>
+  <si>
+    <t>PORCENTAJE ASIGNADO
+(1 al 100%)</t>
+  </si>
+  <si>
+    <t>DISTRIBUCIÒN</t>
+  </si>
+  <si>
+    <t>R1. Requisitos incompletos o mal definidos</t>
+  </si>
+  <si>
+    <t>R2. UI/UX poco intuitiva o confusa</t>
+  </si>
+  <si>
+    <t>IMPACTO</t>
+  </si>
+  <si>
+    <t>PORCENTAJE</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alto </t>
+  </si>
+  <si>
+    <t>RIESGO</t>
+  </si>
+  <si>
+    <t>Clasificación Matriz del Riesgo (Bajo, Medio, Alto), escala 1 al 25</t>
+  </si>
+  <si>
+    <t>Clasificación Probabilidad(Bajo, Medio, Alto) Escala de 1 al 100%</t>
+  </si>
+  <si>
+    <t>PORCENTAJE ASIGNADO DE LA PROBABILIDAD</t>
+  </si>
+  <si>
+    <r>
+      <t>Verde</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Riesgo bajo.</t>
+    </r>
+  </si>
+  <si>
+    <t>01 al 10</t>
+  </si>
+  <si>
+    <t>01 al 19</t>
+  </si>
+  <si>
+    <t>01 al 49 %</t>
+  </si>
+  <si>
+    <r>
+      <t>Amarillo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Riesgo moderado.</t>
+    </r>
+  </si>
+  <si>
+    <t>11 al 15</t>
+  </si>
+  <si>
+    <t>20 al 50</t>
+  </si>
+  <si>
+    <t>50 al 79%</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <r>
+      <t>Rojo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Riesgo alto o crítico.</t>
+    </r>
+  </si>
+  <si>
+    <t>16 al 25</t>
+  </si>
+  <si>
+    <t>51 al 100</t>
+  </si>
+  <si>
+    <t>80 al 100%</t>
+  </si>
+  <si>
+    <t>R3. Retrasos en desarrollo MVP</t>
+  </si>
+  <si>
+    <t>R4. Incumplimiento de cronograma (fases)</t>
+  </si>
+  <si>
+    <t>R5. IA con baja precisión (&lt;70%)</t>
+  </si>
+  <si>
+    <t>R6. Fallas críticas no detectadas antes del lanzamiento</t>
+  </si>
+  <si>
+    <t>R7. Baja participación en pruebas Beta</t>
+  </si>
+  <si>
+    <t>R8. Documentación incompleta o pobre</t>
+  </si>
+  <si>
+    <t>R9. Incumplimiento de cronograma general</t>
+  </si>
+  <si>
+    <t>R10. Fallas en microservicios o API Gateway</t>
+  </si>
+  <si>
+    <t>R11. Acceso no autorizado a datos</t>
+  </si>
+  <si>
+    <t>R12. Errores de sincronización API</t>
+  </si>
+  <si>
+    <t>R13. Incompatibilidad o bajo rendimiento frontend</t>
+  </si>
+  <si>
+    <t>R14. Pérdida o inconsistencia de datos financieros</t>
+  </si>
+  <si>
+    <t>R15. Cuellos de botella por consultas ineficientes</t>
+  </si>
+  <si>
+    <t>R16. Fallas en conexión front–back</t>
+  </si>
+  <si>
+    <t>R17. Errores en despliegue CI/CD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +755,80 @@
       <name val="Century Gothic"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,8 +913,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6A49E"/>
+        <bgColor rgb="FF2E75B5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6A49E"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -1167,16 +1445,425 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1474,14 +2161,153 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="18" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="20" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="21" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="20" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="18" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="18" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="2" borderId="53" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="2" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="17" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="16" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="20" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="16" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="19" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="19" borderId="69" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{E55007F3-D83F-DB42-ADDD-54365F8C4A3A}"/>
+    <cellStyle name="Porcentaje" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="63">
     <dxf>
@@ -2460,8 +3286,8 @@
   </sheetPr>
   <dimension ref="B1:V29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
@@ -3595,6 +4421,395 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2624D3BA-BC78-4F40-8AC4-24B13BFC2356}">
+  <dimension ref="B1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+    </row>
+    <row r="3" spans="2:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="142" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="139" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+    </row>
+    <row r="4" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="141" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="138">
+        <v>0.7</v>
+      </c>
+      <c r="D4" s="107"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="109">
+        <f>+$C4*F21</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="140" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="138">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D5" s="110"/>
+      <c r="E5" s="111">
+        <f>+$C5*E21</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F5" s="136"/>
+    </row>
+    <row r="6" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B6" s="140" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="138">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="112">
+        <f>+$C6*F21</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B7" s="113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="138">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="135">
+        <f>+$C7*F21</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="113" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="138">
+        <v>0.9</v>
+      </c>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="135">
+        <f>+$C8*F$21</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="113" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="138">
+        <v>0.6</v>
+      </c>
+      <c r="D9" s="110"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="135">
+        <f>+$C9*F$21</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B10" s="113" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="138">
+        <v>0.4</v>
+      </c>
+      <c r="D10" s="110"/>
+      <c r="E10" s="149">
+        <f>+$C10*E$21</f>
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="112"/>
+    </row>
+    <row r="11" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B11" s="113" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="138">
+        <v>0.35</v>
+      </c>
+      <c r="D11" s="110"/>
+      <c r="E11" s="149">
+        <f>+$C11*E$21</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F11" s="112"/>
+    </row>
+    <row r="12" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B12" s="113" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="138">
+        <v>0.7</v>
+      </c>
+      <c r="D12" s="114"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="137">
+        <f>+$C12*F21</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="113" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="138">
+        <v>0.65</v>
+      </c>
+      <c r="D13" s="110"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="112">
+        <f>+C13*F$21</f>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="138">
+        <v>0.88</v>
+      </c>
+      <c r="D14" s="110"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="112">
+        <f>+C14*F$21</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="113" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="138">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D15" s="110"/>
+      <c r="E15" s="149">
+        <f>+$C15*E$21</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F15" s="112"/>
+    </row>
+    <row r="16" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B16" s="113" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="138">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="110"/>
+      <c r="E16" s="149">
+        <f>+$C16*E$21</f>
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="112"/>
+    </row>
+    <row r="17" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B17" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="138">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="110"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="112">
+        <f>+C17*F$21</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B18" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="138">
+        <v>0.7</v>
+      </c>
+      <c r="D18" s="110"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="112">
+        <f>+C18*F$21</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B19" s="113" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="138">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D19" s="110"/>
+      <c r="E19" s="149">
+        <f>+$C19*E$21</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F19" s="112"/>
+    </row>
+    <row r="20" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="138">
+        <v>0.45</v>
+      </c>
+      <c r="D20" s="116"/>
+      <c r="E20" s="150">
+        <f>+$C20*E$21</f>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F20" s="144"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="118" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="147">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="145">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="146" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="146" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="122" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="123" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="123" t="s">
+        <v>133</v>
+      </c>
+      <c r="F25" s="124" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="125" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="126" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="127" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="127" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="128" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="D27" s="127" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="127" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="130" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="131" t="s">
+        <v>143</v>
+      </c>
+      <c r="C28" s="132" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="133" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="133" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="134" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.79998168889431442"/>
